--- a/data/2023/ssg/7,27_DE-7.xlsx
+++ b/data/2023/ssg/7,27_DE-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="592">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -157,6 +157,9 @@
     <t>1.1961 -</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -184,9 +187,6 @@
     <t>1.1966 -</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>1a;4;12;21;31;466;468</t>
   </si>
   <si>
@@ -217,547 +217,553 @@
     <t>1.1936 - 3.1938; 4.1941/48 -   ; auch mit durchgehender Nr.-Zählung</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1;3/18;4;8;12;16;18;19;20;24;30;31;F 36</t>
+  </si>
+  <si>
+    <t>752619-2</t>
+  </si>
+  <si>
+    <t>Ysgrifau beirniadol</t>
+  </si>
+  <si>
+    <t>Gwasg Gee</t>
+  </si>
+  <si>
+    <t>Dinbych</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>1.1965 -</t>
+  </si>
+  <si>
+    <t>3189-6</t>
+  </si>
+  <si>
+    <t>Irish university review</t>
+  </si>
+  <si>
+    <t>Edinburgh University Press</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>0021-1427</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>622641-3</t>
+  </si>
+  <si>
+    <t>1.1970/71 -</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1a;12;355;468</t>
+  </si>
+  <si>
+    <t>356792-8</t>
+  </si>
+  <si>
+    <t>Celtic cultures newsletter</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>0790-3626</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>Nr. 1.1983 -</t>
+  </si>
+  <si>
+    <t>Revue celtique</t>
+  </si>
+  <si>
+    <t>Bouillon</t>
+  </si>
+  <si>
+    <t>1141-2011</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>1.1870/72 - 51.1934,3/4</t>
+  </si>
+  <si>
+    <t>767001-1</t>
+  </si>
+  <si>
+    <t>Llên Cymru</t>
+  </si>
+  <si>
+    <t>Gwasg Prifysgol Cymru</t>
+  </si>
+  <si>
+    <t>Caerdydd</t>
+  </si>
+  <si>
+    <t>wel</t>
+  </si>
+  <si>
+    <t>0076-0188</t>
+  </si>
+  <si>
+    <t>1.1950/51 -</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>400026-2</t>
+  </si>
+  <si>
+    <t>The journal of Celtic studies</t>
+  </si>
+  <si>
+    <t>Centre for Celtic Studies, Univ.</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>0278-0968;1781-1406</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>1.1949/50 - 2.1953/58; 3.1981/82; 4.2004(2005); 5.2005(2009) -</t>
+  </si>
+  <si>
+    <t>401617-8</t>
+  </si>
+  <si>
+    <t>Studia hibernica</t>
+  </si>
+  <si>
+    <t>Liverpool University Press;Coláiste Phádraig</t>
+  </si>
+  <si>
+    <t>Liverpool;Dublin;Baile Atha Cliath</t>
+  </si>
+  <si>
+    <t>0081-6477</t>
+  </si>
+  <si>
+    <t>940;890;490</t>
+  </si>
+  <si>
+    <t>Nr. 1.1961 -</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1a;4;12;30;468</t>
+  </si>
+  <si>
+    <t>1093073-5</t>
+  </si>
+  <si>
+    <t>Mediaeval and modern Welsh series</t>
+  </si>
+  <si>
+    <t>0332-4230</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>1.1957 -</t>
+  </si>
+  <si>
+    <t>778664-5</t>
+  </si>
+  <si>
+    <t>Keltica</t>
+  </si>
+  <si>
+    <t>Soc.</t>
+  </si>
+  <si>
+    <t>Waltham, Mass.</t>
+  </si>
+  <si>
+    <t>0192-1207</t>
+  </si>
+  <si>
+    <t>1.1979/80 - 2.1983; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>429318-6</t>
+  </si>
+  <si>
+    <t>Transactions of the Ossianic Society</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>1.1853(1854) - 6.1858(1861)[?]</t>
+  </si>
+  <si>
+    <t>1120250-6</t>
+  </si>
+  <si>
+    <t>Maynooth monographs</t>
+  </si>
+  <si>
+    <t>An Sagart</t>
+  </si>
+  <si>
+    <t>Maynooth</t>
+  </si>
+  <si>
+    <t>0790-8806</t>
+  </si>
+  <si>
+    <t>1.1987 - 7.1996; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1121179-9</t>
+  </si>
+  <si>
+    <t>mg;d</t>
+  </si>
+  <si>
+    <t>Beiträge zur Kultur und Geschichte der Kelten</t>
+  </si>
+  <si>
+    <t>Ed. Stonehenge, Verl. Monte Verita</t>
+  </si>
+  <si>
+    <t>Wien</t>
+  </si>
+  <si>
+    <t>ger</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>1.1988[?]</t>
+  </si>
+  <si>
+    <t>1130820-5</t>
+  </si>
+  <si>
+    <t>Journal of Celtic linguistics</t>
+  </si>
+  <si>
+    <t>Univ. of Wales Press</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>0962-1377</t>
+  </si>
+  <si>
+    <t>1.1992 -</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1a;4;20</t>
+  </si>
+  <si>
+    <t>1138714-2</t>
+  </si>
+  <si>
+    <t>Scottish Gaelic texts</t>
+  </si>
+  <si>
+    <t>Scottish Acad. Press</t>
+  </si>
+  <si>
+    <t>1.1937 - 18.1995; N.S. 1.1996 -</t>
+  </si>
+  <si>
+    <t>1144865-9</t>
+  </si>
+  <si>
+    <t>ra;b</t>
+  </si>
+  <si>
+    <t>Irland-Journal</t>
+  </si>
+  <si>
+    <t>Ludwig;Verl. Irland-Journal</t>
+  </si>
+  <si>
+    <t>Moers</t>
+  </si>
+  <si>
+    <t>1432-3370</t>
+  </si>
+  <si>
+    <t>910;940;820</t>
+  </si>
+  <si>
+    <t>1.1990 -</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>514379-2</t>
+  </si>
+  <si>
+    <t>Materials for the study of the old English drama</t>
+  </si>
+  <si>
+    <t>Libr. Universit.</t>
+  </si>
+  <si>
+    <t>Louvain</t>
+  </si>
+  <si>
+    <t>514584-3</t>
+  </si>
+  <si>
+    <t>N.S. 1.1927 -</t>
+  </si>
+  <si>
+    <t>517586-0</t>
+  </si>
+  <si>
+    <t>Irische Texte</t>
+  </si>
+  <si>
+    <t>Hirzel</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>1880; 2.Ser. H. 1.1884 - 2.1887; 3.Ser. H. 1.1891 - 2.1897; 4.Ser. H. 1.1900 - 2.1909[?]</t>
+  </si>
+  <si>
+    <t>135559-4</t>
+  </si>
+  <si>
+    <t>Language sciences</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>0388-0001</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>1.1968 - 48.1977; [N.S.] 1.1978/79(1979) - 9.1987 = Nr. 49-66; 10.1988 - 34.2012; Nr. 35.2013(Jan.) -</t>
+  </si>
+  <si>
+    <t>526472-8</t>
+  </si>
+  <si>
+    <t>Archiv für celtische Lexikographie</t>
+  </si>
+  <si>
+    <t>Halle, S.</t>
+  </si>
+  <si>
+    <t>7,27;FID-GER-DE-30</t>
+  </si>
+  <si>
+    <t>1.1898/1900 - 3.1905/07; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>143819-0</t>
+  </si>
+  <si>
+    <t>Langue et littérature bretonnes</t>
+  </si>
+  <si>
+    <t>Brud Nevez</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>fre</t>
+  </si>
+  <si>
+    <t>840;850;860</t>
+  </si>
+  <si>
+    <t>[1.]1973/82(1984); 2.1983/88(1990) - 3.1989/90(1992); damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1174700-6</t>
+  </si>
+  <si>
+    <t>Cambrian medieval Celtic studies</t>
+  </si>
+  <si>
+    <t>CMCS</t>
+  </si>
+  <si>
+    <t>Aberystwyth</t>
+  </si>
+  <si>
+    <t>1353-0089</t>
+  </si>
+  <si>
+    <t>400;820</t>
+  </si>
+  <si>
+    <t>339978-3</t>
+  </si>
+  <si>
+    <t>Nr. 26.1993 -</t>
+  </si>
+  <si>
+    <t>1a;4;12;19;24;30;355</t>
+  </si>
+  <si>
+    <t>154512-7</t>
+  </si>
+  <si>
+    <t>Bwletin y Bwrdd Gwybodau Celtaidd</t>
+  </si>
+  <si>
+    <t>wel;eng</t>
+  </si>
+  <si>
+    <t>0142-3363</t>
+  </si>
+  <si>
+    <t>910;940;890</t>
+  </si>
+  <si>
+    <t>202233-3</t>
+  </si>
+  <si>
+    <t>301365-0</t>
+  </si>
+  <si>
+    <t>26.1974/76(1976) - 40.1993</t>
+  </si>
+  <si>
+    <t>186660-6</t>
+  </si>
+  <si>
+    <t>Cahiers irlandais</t>
+  </si>
+  <si>
+    <t>PUL;PUL</t>
+  </si>
+  <si>
+    <t>Lille;Villeneuve-d'Ascq</t>
+  </si>
+  <si>
+    <t>0246-151X</t>
+  </si>
+  <si>
+    <t>1.1972 -</t>
+  </si>
+  <si>
+    <t>193573-2</t>
+  </si>
+  <si>
+    <t>Carn</t>
+  </si>
+  <si>
+    <t>0332-3900;0257-7860</t>
+  </si>
+  <si>
+    <t>1032901-8</t>
+  </si>
+  <si>
+    <t>1.1973 -   ; auch mit durchgehenden Nr.- Zählung</t>
+  </si>
+  <si>
+    <t>200073-8</t>
+  </si>
+  <si>
+    <t>Zeitschrift für celtische Philologie</t>
+  </si>
+  <si>
+    <t>de Gruyter;Niemeyer;Niemeyer;de @Gruyter</t>
+  </si>
+  <si>
+    <t>Berlin;Boston;Halle [u.a.];Tübingen;New York, NY</t>
+  </si>
+  <si>
+    <t>0084-5302;2509-5331;2509-5323</t>
+  </si>
+  <si>
+    <t>890;400</t>
+  </si>
+  <si>
+    <t>7,11;7,27;FID-GER-DE-30</t>
+  </si>
+  <si>
+    <t>1.1896/97 -</t>
+  </si>
+  <si>
+    <t>3/18;4;12;18;30;109;352</t>
+  </si>
+  <si>
+    <t>Studia Celtica</t>
+  </si>
+  <si>
+    <t>eng;wel</t>
+  </si>
+  <si>
+    <t>0081-6353</t>
+  </si>
+  <si>
+    <t>1;4;12;19;F 36</t>
+  </si>
+  <si>
+    <t>202398-2</t>
+  </si>
+  <si>
+    <t>Scottish studies</t>
+  </si>
+  <si>
+    <t>Canongate Academic</t>
+  </si>
+  <si>
+    <t>0036-9411</t>
+  </si>
+  <si>
+    <t>820;890</t>
+  </si>
+  <si>
+    <t>1.1957 - 38.2015/18(2018)</t>
+  </si>
+  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>1;3/18;4;12;16;18;19;20;24;30;31;F 36</t>
-  </si>
-  <si>
-    <t>752619-2</t>
-  </si>
-  <si>
-    <t>Ysgrifau beirniadol</t>
-  </si>
-  <si>
-    <t>Gwasg Gee</t>
-  </si>
-  <si>
-    <t>Dinbych</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>1.1965 -</t>
-  </si>
-  <si>
-    <t>3189-6</t>
-  </si>
-  <si>
-    <t>Irish university review</t>
-  </si>
-  <si>
-    <t>Edinburgh University Press</t>
-  </si>
-  <si>
-    <t>Edinburgh</t>
-  </si>
-  <si>
-    <t>0021-1427</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>622641-3</t>
-  </si>
-  <si>
-    <t>1.1970/71 -</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1a;12;355;468</t>
-  </si>
-  <si>
-    <t>356792-8</t>
-  </si>
-  <si>
-    <t>Celtic cultures newsletter</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>0790-3626</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>Nr. 1.1983 -</t>
-  </si>
-  <si>
-    <t>Revue celtique</t>
-  </si>
-  <si>
-    <t>Bouillon</t>
-  </si>
-  <si>
-    <t>1141-2011</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>1.1870/72 - 51.1934,3/4</t>
-  </si>
-  <si>
-    <t>767001-1</t>
-  </si>
-  <si>
-    <t>Llên Cymru</t>
-  </si>
-  <si>
-    <t>Gwasg Prifysgol Cymru</t>
-  </si>
-  <si>
-    <t>Caerdydd</t>
-  </si>
-  <si>
-    <t>wel</t>
-  </si>
-  <si>
-    <t>0076-0188</t>
-  </si>
-  <si>
-    <t>1.1950/51 -</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>400026-2</t>
-  </si>
-  <si>
-    <t>The journal of Celtic studies</t>
-  </si>
-  <si>
-    <t>Centre for Celtic Studies, Univ.</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>0278-0968;1781-1406</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>1.1949/50 - 2.1953/58; 3.1981/82; 4.2004(2005); 5.2005(2009) -</t>
-  </si>
-  <si>
-    <t>401617-8</t>
-  </si>
-  <si>
-    <t>Studia hibernica</t>
-  </si>
-  <si>
-    <t>Liverpool University Press;Coláiste Phádraig</t>
-  </si>
-  <si>
-    <t>Liverpool;Dublin;Baile Atha Cliath</t>
-  </si>
-  <si>
-    <t>0081-6477</t>
-  </si>
-  <si>
-    <t>940;890;490</t>
-  </si>
-  <si>
-    <t>Nr. 1.1961 -</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1a;4;12;30;468</t>
-  </si>
-  <si>
-    <t>1093073-5</t>
-  </si>
-  <si>
-    <t>Mediaeval and modern Welsh series</t>
-  </si>
-  <si>
-    <t>0332-4230</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>1.1957 -</t>
-  </si>
-  <si>
-    <t>778664-5</t>
-  </si>
-  <si>
-    <t>Keltica</t>
-  </si>
-  <si>
-    <t>Soc.</t>
-  </si>
-  <si>
-    <t>Waltham, Mass.</t>
-  </si>
-  <si>
-    <t>0192-1207</t>
-  </si>
-  <si>
-    <t>1.1979/80 - 2.1983; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>429318-6</t>
-  </si>
-  <si>
-    <t>Transactions of the Ossianic Society</t>
-  </si>
-  <si>
-    <t>[Verlag nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>1.1853(1854) - 6.1858(1861)[?]</t>
-  </si>
-  <si>
-    <t>1120250-6</t>
-  </si>
-  <si>
-    <t>Maynooth monographs</t>
-  </si>
-  <si>
-    <t>An Sagart</t>
-  </si>
-  <si>
-    <t>Maynooth</t>
-  </si>
-  <si>
-    <t>0790-8806</t>
-  </si>
-  <si>
-    <t>1.1987 - 7.1996; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1121179-9</t>
-  </si>
-  <si>
-    <t>mg;d</t>
-  </si>
-  <si>
-    <t>Beiträge zur Kultur und Geschichte der Kelten</t>
-  </si>
-  <si>
-    <t>Ed. Stonehenge, Verl. Monte Verita</t>
-  </si>
-  <si>
-    <t>Wien</t>
-  </si>
-  <si>
-    <t>ger</t>
-  </si>
-  <si>
-    <t>940</t>
-  </si>
-  <si>
-    <t>1.1988[?]</t>
-  </si>
-  <si>
-    <t>1130820-5</t>
-  </si>
-  <si>
-    <t>Journal of Celtic linguistics</t>
-  </si>
-  <si>
-    <t>Univ. of Wales Press</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>0962-1377</t>
-  </si>
-  <si>
-    <t>1.1992 -</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1a;4;20</t>
-  </si>
-  <si>
-    <t>1138714-2</t>
-  </si>
-  <si>
-    <t>Scottish Gaelic texts</t>
-  </si>
-  <si>
-    <t>Scottish Acad. Press</t>
-  </si>
-  <si>
-    <t>1.1937 - 18.1995; N.S. 1.1996 -</t>
-  </si>
-  <si>
-    <t>1144865-9</t>
-  </si>
-  <si>
-    <t>ra;b</t>
-  </si>
-  <si>
-    <t>Irland-Journal</t>
-  </si>
-  <si>
-    <t>Ludwig;Verl. Irland-Journal</t>
-  </si>
-  <si>
-    <t>Moers</t>
-  </si>
-  <si>
-    <t>1432-3370</t>
-  </si>
-  <si>
-    <t>910;940;820</t>
-  </si>
-  <si>
-    <t>1.1990 -</t>
-  </si>
-  <si>
-    <t>514379-2</t>
-  </si>
-  <si>
-    <t>Materials for the study of the old English drama</t>
-  </si>
-  <si>
-    <t>Libr. Universit.</t>
-  </si>
-  <si>
-    <t>Louvain</t>
-  </si>
-  <si>
-    <t>514584-3</t>
-  </si>
-  <si>
-    <t>N.S. 1.1927 -</t>
-  </si>
-  <si>
-    <t>517586-0</t>
-  </si>
-  <si>
-    <t>Irische Texte</t>
-  </si>
-  <si>
-    <t>Hirzel</t>
-  </si>
-  <si>
-    <t>Leipzig</t>
-  </si>
-  <si>
-    <t>830</t>
-  </si>
-  <si>
-    <t>1880; 2.Ser. H. 1.1884 - 2.1887; 3.Ser. H. 1.1891 - 2.1897; 4.Ser. H. 1.1900 - 2.1909[?]</t>
-  </si>
-  <si>
-    <t>135559-4</t>
-  </si>
-  <si>
-    <t>Language sciences</t>
-  </si>
-  <si>
-    <t>Elsevier</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>0388-0001</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>1.1968 - 48.1977; [N.S.] 1.1978/79(1979) - 9.1987 = Nr. 49-66; 10.1988 - 34.2012; Nr. 35.2013(Jan.) -</t>
-  </si>
-  <si>
-    <t>526472-8</t>
-  </si>
-  <si>
-    <t>Archiv für celtische Lexikographie</t>
-  </si>
-  <si>
-    <t>Halle, S.</t>
-  </si>
-  <si>
-    <t>7,27;FID-GER-DE-30</t>
-  </si>
-  <si>
-    <t>1.1898/1900 - 3.1905/07; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>143819-0</t>
-  </si>
-  <si>
-    <t>Langue et littérature bretonnes</t>
-  </si>
-  <si>
-    <t>Brud Nevez</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>fre</t>
-  </si>
-  <si>
-    <t>840;850;860</t>
-  </si>
-  <si>
-    <t>[1.]1973/82(1984); 2.1983/88(1990) - 3.1989/90(1992); damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1174700-6</t>
-  </si>
-  <si>
-    <t>Cambrian medieval Celtic studies</t>
-  </si>
-  <si>
-    <t>CMCS</t>
-  </si>
-  <si>
-    <t>Aberystwyth</t>
-  </si>
-  <si>
-    <t>1353-0089</t>
-  </si>
-  <si>
-    <t>400;820</t>
-  </si>
-  <si>
-    <t>339978-3</t>
-  </si>
-  <si>
-    <t>Nr. 26.1993 -</t>
-  </si>
-  <si>
-    <t>1a;4;12;19;24;30;355</t>
-  </si>
-  <si>
-    <t>154512-7</t>
-  </si>
-  <si>
-    <t>Bwletin y Bwrdd Gwybodau Celtaidd</t>
-  </si>
-  <si>
-    <t>wel;eng</t>
-  </si>
-  <si>
-    <t>0142-3363</t>
-  </si>
-  <si>
-    <t>910;940;890</t>
-  </si>
-  <si>
-    <t>202233-3</t>
-  </si>
-  <si>
-    <t>301365-0</t>
-  </si>
-  <si>
-    <t>26.1974/76(1976) - 40.1993</t>
-  </si>
-  <si>
-    <t>186660-6</t>
-  </si>
-  <si>
-    <t>Cahiers irlandais</t>
-  </si>
-  <si>
-    <t>PUL;PUL</t>
-  </si>
-  <si>
-    <t>Lille;Villeneuve-d'Ascq</t>
-  </si>
-  <si>
-    <t>0246-151X</t>
-  </si>
-  <si>
-    <t>1.1972 -</t>
-  </si>
-  <si>
-    <t>193573-2</t>
-  </si>
-  <si>
-    <t>Carn</t>
-  </si>
-  <si>
-    <t>0332-3900;0257-7860</t>
-  </si>
-  <si>
-    <t>1032901-8</t>
-  </si>
-  <si>
-    <t>1.1973 -   ; auch mit durchgehenden Nr.- Zählung</t>
-  </si>
-  <si>
-    <t>200073-8</t>
-  </si>
-  <si>
-    <t>Zeitschrift für celtische Philologie</t>
-  </si>
-  <si>
-    <t>de Gruyter;Niemeyer;Niemeyer;de @Gruyter</t>
-  </si>
-  <si>
-    <t>Berlin;Boston;Halle [u.a.];Tübingen;New York, NY</t>
-  </si>
-  <si>
-    <t>0084-5302;2509-5331;2509-5323</t>
-  </si>
-  <si>
-    <t>890;400</t>
-  </si>
-  <si>
-    <t>7,11;7,27;FID-GER-DE-30</t>
-  </si>
-  <si>
-    <t>1.1896/97 -</t>
-  </si>
-  <si>
-    <t>3/18;4;12;18;30;109;352</t>
-  </si>
-  <si>
-    <t>Studia Celtica</t>
-  </si>
-  <si>
-    <t>eng;wel</t>
-  </si>
-  <si>
-    <t>0081-6353</t>
-  </si>
-  <si>
-    <t>1;4;12;19;F 36</t>
-  </si>
-  <si>
-    <t>202398-2</t>
-  </si>
-  <si>
-    <t>Scottish studies</t>
-  </si>
-  <si>
-    <t>Canongate Academic</t>
-  </si>
-  <si>
-    <t>0036-9411</t>
-  </si>
-  <si>
-    <t>820;890</t>
-  </si>
-  <si>
-    <t>1.1957 - 38.2015/18(2018)</t>
   </si>
   <si>
     <t>990470-0</t>
@@ -2337,16 +2343,16 @@
         <v>31</v>
       </c>
       <c r="U3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="W3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="X3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="s">
         <v>31</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -2363,25 +2369,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
         <v>45</v>
@@ -2405,7 +2411,7 @@
         <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
         <v>31</v>
@@ -2417,7 +2423,7 @@
         <v>36</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W4" t="s">
         <v>31</v>
@@ -2491,10 +2497,10 @@
         <v>31</v>
       </c>
       <c r="U5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="W5" t="s">
         <v>31</v>
@@ -2577,7 +2583,7 @@
         <v>31</v>
       </c>
       <c r="X6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y6" t="s">
         <v>31</v>
@@ -2603,7 +2609,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -2731,7 +2737,7 @@
         <v>31</v>
       </c>
       <c r="X8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y8" t="s">
         <v>31</v>
@@ -2808,7 +2814,7 @@
         <v>31</v>
       </c>
       <c r="X9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y9" t="s">
         <v>31</v>
@@ -2911,7 +2917,7 @@
         <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
         <v>31</v>
@@ -2962,7 +2968,7 @@
         <v>31</v>
       </c>
       <c r="X11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y11" t="s">
         <v>31</v>
@@ -2988,7 +2994,7 @@
         <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
         <v>31</v>
@@ -3065,7 +3071,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
         <v>31</v>
@@ -3116,7 +3122,7 @@
         <v>31</v>
       </c>
       <c r="X13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y13" t="s">
         <v>31</v>
@@ -3142,7 +3148,7 @@
         <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
         <v>31</v>
@@ -3193,7 +3199,7 @@
         <v>31</v>
       </c>
       <c r="X14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y14" t="s">
         <v>31</v>
@@ -3270,7 +3276,7 @@
         <v>31</v>
       </c>
       <c r="X15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y15" t="s">
         <v>31</v>
@@ -3296,7 +3302,7 @@
         <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
         <v>31</v>
@@ -3347,7 +3353,7 @@
         <v>31</v>
       </c>
       <c r="X16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y16" t="s">
         <v>31</v>
@@ -3424,7 +3430,7 @@
         <v>31</v>
       </c>
       <c r="X17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y17" t="s">
         <v>31</v>
@@ -3450,7 +3456,7 @@
         <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
         <v>31</v>
@@ -3527,7 +3533,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
         <v>31</v>
@@ -3578,7 +3584,7 @@
         <v>31</v>
       </c>
       <c r="X19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y19" t="s">
         <v>31</v>
@@ -3655,15 +3661,15 @@
         <v>31</v>
       </c>
       <c r="X20" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="Y20" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -3672,13 +3678,13 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -3711,10 +3717,10 @@
         <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S21" t="s">
         <v>31</v>
@@ -3732,7 +3738,7 @@
         <v>31</v>
       </c>
       <c r="X21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y21" t="s">
         <v>31</v>
@@ -3740,7 +3746,7 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -3749,13 +3755,13 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
         <v>147</v>
@@ -3767,7 +3773,7 @@
         <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s">
         <v>45</v>
@@ -3791,7 +3797,7 @@
         <v>31</v>
       </c>
       <c r="R22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S22" t="s">
         <v>31</v>
@@ -3809,7 +3815,7 @@
         <v>31</v>
       </c>
       <c r="X22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y22" t="s">
         <v>31</v>
@@ -3817,7 +3823,7 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -3826,25 +3832,25 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
         <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
@@ -3868,7 +3874,7 @@
         <v>31</v>
       </c>
       <c r="R23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S23" t="s">
         <v>31</v>
@@ -3886,7 +3892,7 @@
         <v>31</v>
       </c>
       <c r="X23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y23" t="s">
         <v>31</v>
@@ -3894,7 +3900,7 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -3903,13 +3909,13 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E24" t="s">
         <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
         <v>147</v>
@@ -3921,10 +3927,10 @@
         <v>31</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s">
         <v>31</v>
@@ -3945,7 +3951,7 @@
         <v>31</v>
       </c>
       <c r="R24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S24" t="s">
         <v>31</v>
@@ -3963,7 +3969,7 @@
         <v>31</v>
       </c>
       <c r="X24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y24" t="s">
         <v>31</v>
@@ -3971,7 +3977,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -3980,16 +3986,16 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H25" t="s">
         <v>31</v>
@@ -3998,7 +4004,7 @@
         <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s">
         <v>45</v>
@@ -4022,7 +4028,7 @@
         <v>31</v>
       </c>
       <c r="R25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S25" t="s">
         <v>31</v>
@@ -4040,7 +4046,7 @@
         <v>31</v>
       </c>
       <c r="X25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y25" t="s">
         <v>31</v>
@@ -4048,7 +4054,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -4057,25 +4063,25 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
         <v>31</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s">
         <v>34</v>
@@ -4096,10 +4102,10 @@
         <v>31</v>
       </c>
       <c r="Q26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S26" t="s">
         <v>31</v>
@@ -4108,10 +4114,10 @@
         <v>31</v>
       </c>
       <c r="U26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V26" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="W26" t="s">
         <v>31</v>
@@ -4120,12 +4126,12 @@
         <v>36</v>
       </c>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -4134,7 +4140,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E27" t="s">
         <v>98</v>
@@ -4143,16 +4149,16 @@
         <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H27" t="s">
         <v>31</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s">
         <v>45</v>
@@ -4170,13 +4176,13 @@
         <v>31</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S27" t="s">
         <v>31</v>
@@ -4194,7 +4200,7 @@
         <v>31</v>
       </c>
       <c r="X27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y27" t="s">
         <v>31</v>
@@ -4202,7 +4208,7 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -4211,22 +4217,22 @@
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H28" t="s">
         <v>31</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J28" t="s">
         <v>94</v>
@@ -4253,7 +4259,7 @@
         <v>31</v>
       </c>
       <c r="R28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S28" t="s">
         <v>31</v>
@@ -4271,7 +4277,7 @@
         <v>31</v>
       </c>
       <c r="X28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y28" t="s">
         <v>31</v>
@@ -4279,7 +4285,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -4288,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E29" t="s">
         <v>134</v>
@@ -4297,13 +4303,13 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
         <v>31</v>
       </c>
       <c r="I29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J29" t="s">
         <v>94</v>
@@ -4327,10 +4333,10 @@
         <v>31</v>
       </c>
       <c r="Q29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S29" t="s">
         <v>31</v>
@@ -4348,7 +4354,7 @@
         <v>31</v>
       </c>
       <c r="X29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y29" t="s">
         <v>31</v>
@@ -4356,7 +4362,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -4365,13 +4371,13 @@
         <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G30" t="s">
         <v>147</v>
@@ -4380,13 +4386,13 @@
         <v>31</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s">
         <v>31</v>
@@ -4407,7 +4413,7 @@
         <v>31</v>
       </c>
       <c r="R30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S30" t="s">
         <v>31</v>
@@ -4428,12 +4434,12 @@
         <v>36</v>
       </c>
       <c r="Y30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -4442,7 +4448,7 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -4451,13 +4457,13 @@
         <v>153</v>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H31" t="s">
         <v>31</v>
       </c>
       <c r="I31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J31" t="s">
         <v>64</v>
@@ -4481,10 +4487,10 @@
         <v>31</v>
       </c>
       <c r="Q31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S31" t="s">
         <v>31</v>
@@ -4505,12 +4511,12 @@
         <v>119</v>
       </c>
       <c r="Y31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -4519,10 +4525,10 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F32" t="s">
         <v>78</v>
@@ -4534,10 +4540,10 @@
         <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K32" t="s">
         <v>45</v>
@@ -4561,7 +4567,7 @@
         <v>31</v>
       </c>
       <c r="R32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="S32" t="s">
         <v>31</v>
@@ -4582,12 +4588,12 @@
         <v>103</v>
       </c>
       <c r="Y32" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -4596,16 +4602,16 @@
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E33" t="s">
         <v>134</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s">
         <v>31</v>
@@ -4617,7 +4623,7 @@
         <v>94</v>
       </c>
       <c r="K33" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s">
         <v>31</v>
@@ -4638,7 +4644,7 @@
         <v>31</v>
       </c>
       <c r="R33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S33" t="s">
         <v>31</v>
@@ -4656,7 +4662,7 @@
         <v>31</v>
       </c>
       <c r="X33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y33" t="s">
         <v>31</v>
@@ -4664,7 +4670,7 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -4682,7 +4688,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H34" t="s">
         <v>31</v>
@@ -4691,7 +4697,7 @@
         <v>43</v>
       </c>
       <c r="J34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s">
         <v>45</v>
@@ -4715,7 +4721,7 @@
         <v>31</v>
       </c>
       <c r="R34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="S34" t="s">
         <v>31</v>
@@ -4733,7 +4739,7 @@
         <v>31</v>
       </c>
       <c r="X34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y34" t="s">
         <v>31</v>
@@ -4741,7 +4747,7 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -4750,13 +4756,13 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E35" t="s">
         <v>134</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -4765,10 +4771,10 @@
         <v>31</v>
       </c>
       <c r="I35" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K35" t="s">
         <v>45</v>
@@ -4792,7 +4798,7 @@
         <v>31</v>
       </c>
       <c r="R35" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="S35" t="s">
         <v>31</v>
@@ -4810,7 +4816,7 @@
         <v>31</v>
       </c>
       <c r="X35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y35" t="s">
         <v>31</v>
@@ -4818,7 +4824,7 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -4827,16 +4833,16 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E36" t="s">
         <v>134</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H36" t="s">
         <v>31</v>
@@ -4869,7 +4875,7 @@
         <v>31</v>
       </c>
       <c r="R36" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="S36" t="s">
         <v>31</v>
@@ -4887,7 +4893,7 @@
         <v>31</v>
       </c>
       <c r="X36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y36" t="s">
         <v>31</v>
@@ -4895,7 +4901,7 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -4904,22 +4910,22 @@
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E37" t="s">
         <v>134</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H37" t="s">
         <v>31</v>
       </c>
       <c r="I37" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J37" t="s">
         <v>124</v>
@@ -4946,7 +4952,7 @@
         <v>31</v>
       </c>
       <c r="R37" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="S37" t="s">
         <v>31</v>
@@ -4964,7 +4970,7 @@
         <v>31</v>
       </c>
       <c r="X37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y37" t="s">
         <v>31</v>
@@ -4972,7 +4978,7 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -4981,13 +4987,13 @@
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
         <v>134</v>
       </c>
       <c r="F38" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G38" t="s">
         <v>31</v>
@@ -5023,7 +5029,7 @@
         <v>31</v>
       </c>
       <c r="R38" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="S38" t="s">
         <v>31</v>
@@ -5041,7 +5047,7 @@
         <v>31</v>
       </c>
       <c r="X38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y38" t="s">
         <v>31</v>
@@ -5049,7 +5055,7 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -5058,7 +5064,7 @@
         <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E39" t="s">
         <v>134</v>
@@ -5100,7 +5106,7 @@
         <v>31</v>
       </c>
       <c r="R39" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="S39" t="s">
         <v>31</v>
@@ -5118,7 +5124,7 @@
         <v>31</v>
       </c>
       <c r="X39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y39" t="s">
         <v>31</v>
@@ -5126,7 +5132,7 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -5135,7 +5141,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E40" t="s">
         <v>134</v>
@@ -5177,7 +5183,7 @@
         <v>31</v>
       </c>
       <c r="R40" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S40" t="s">
         <v>31</v>
@@ -5195,7 +5201,7 @@
         <v>31</v>
       </c>
       <c r="X40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y40" t="s">
         <v>31</v>
@@ -5203,7 +5209,7 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -5212,7 +5218,7 @@
         <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E41" t="s">
         <v>134</v>
@@ -5230,7 +5236,7 @@
         <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41" t="s">
         <v>45</v>
@@ -5254,7 +5260,7 @@
         <v>31</v>
       </c>
       <c r="R41" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S41" t="s">
         <v>31</v>
@@ -5272,7 +5278,7 @@
         <v>31</v>
       </c>
       <c r="X41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y41" t="s">
         <v>31</v>
@@ -5280,7 +5286,7 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -5289,16 +5295,16 @@
         <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E42" t="s">
         <v>134</v>
       </c>
       <c r="F42" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H42" t="s">
         <v>31</v>
@@ -5307,10 +5313,10 @@
         <v>31</v>
       </c>
       <c r="J42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K42" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s">
         <v>31</v>
@@ -5331,7 +5337,7 @@
         <v>31</v>
       </c>
       <c r="R42" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="S42" t="s">
         <v>31</v>
@@ -5349,7 +5355,7 @@
         <v>31</v>
       </c>
       <c r="X42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y42" t="s">
         <v>31</v>
@@ -5357,7 +5363,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -5366,28 +5372,28 @@
         <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E43" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F43" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s">
         <v>31</v>
       </c>
       <c r="I43" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J43" t="s">
         <v>110</v>
       </c>
       <c r="K43" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L43" t="s">
         <v>31</v>
@@ -5408,7 +5414,7 @@
         <v>31</v>
       </c>
       <c r="R43" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="S43" t="s">
         <v>31</v>
@@ -5429,12 +5435,12 @@
         <v>156</v>
       </c>
       <c r="Y43" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -5443,13 +5449,13 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E44" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F44" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G44" t="s">
         <v>147</v>
@@ -5458,7 +5464,7 @@
         <v>31</v>
       </c>
       <c r="I44" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J44" t="s">
         <v>110</v>
@@ -5485,7 +5491,7 @@
         <v>31</v>
       </c>
       <c r="R44" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="S44" t="s">
         <v>31</v>
@@ -5503,7 +5509,7 @@
         <v>31</v>
       </c>
       <c r="X44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y44" t="s">
         <v>31</v>
@@ -5511,7 +5517,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -5520,13 +5526,13 @@
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E45" t="s">
         <v>134</v>
       </c>
       <c r="F45" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
@@ -5562,7 +5568,7 @@
         <v>31</v>
       </c>
       <c r="R45" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="S45" t="s">
         <v>31</v>
@@ -5580,7 +5586,7 @@
         <v>31</v>
       </c>
       <c r="X45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y45" t="s">
         <v>31</v>
@@ -5588,7 +5594,7 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -5597,28 +5603,28 @@
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E46" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F46" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H46" t="s">
         <v>31</v>
       </c>
       <c r="I46" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J46" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K46" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s">
         <v>31</v>
@@ -5639,7 +5645,7 @@
         <v>31</v>
       </c>
       <c r="R46" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="S46" t="s">
         <v>31</v>
@@ -5657,7 +5663,7 @@
         <v>31</v>
       </c>
       <c r="X46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y46" t="s">
         <v>31</v>
@@ -5665,7 +5671,7 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -5674,13 +5680,13 @@
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E47" t="s">
         <v>134</v>
       </c>
       <c r="F47" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -5689,7 +5695,7 @@
         <v>31</v>
       </c>
       <c r="I47" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J47" t="s">
         <v>73</v>
@@ -5716,7 +5722,7 @@
         <v>31</v>
       </c>
       <c r="R47" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S47" t="s">
         <v>31</v>
@@ -5734,7 +5740,7 @@
         <v>31</v>
       </c>
       <c r="X47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y47" t="s">
         <v>31</v>
@@ -5742,7 +5748,7 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -5751,13 +5757,13 @@
         <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E48" t="s">
         <v>134</v>
       </c>
       <c r="F48" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
@@ -5766,7 +5772,7 @@
         <v>31</v>
       </c>
       <c r="I48" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J48" t="s">
         <v>80</v>
@@ -5793,7 +5799,7 @@
         <v>31</v>
       </c>
       <c r="R48" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S48" t="s">
         <v>31</v>
@@ -5811,7 +5817,7 @@
         <v>31</v>
       </c>
       <c r="X48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y48" t="s">
         <v>31</v>
@@ -5819,7 +5825,7 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -5828,7 +5834,7 @@
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E49" t="s">
         <v>134</v>
@@ -5843,7 +5849,7 @@
         <v>31</v>
       </c>
       <c r="I49" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J49" t="s">
         <v>148</v>
@@ -5870,7 +5876,7 @@
         <v>31</v>
       </c>
       <c r="R49" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="S49" t="s">
         <v>31</v>
@@ -5888,7 +5894,7 @@
         <v>31</v>
       </c>
       <c r="X49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y49" t="s">
         <v>31</v>
@@ -5896,7 +5902,7 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -5905,13 +5911,13 @@
         <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E50" t="s">
         <v>134</v>
       </c>
       <c r="F50" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -5920,10 +5926,10 @@
         <v>31</v>
       </c>
       <c r="I50" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J50" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K50" t="s">
         <v>45</v>
@@ -5944,10 +5950,10 @@
         <v>31</v>
       </c>
       <c r="Q50" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="R50" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="S50" t="s">
         <v>31</v>
@@ -5965,7 +5971,7 @@
         <v>31</v>
       </c>
       <c r="X50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y50" t="s">
         <v>31</v>
@@ -5973,7 +5979,7 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -5982,7 +5988,7 @@
         <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E51" t="s">
         <v>134</v>
@@ -6024,7 +6030,7 @@
         <v>31</v>
       </c>
       <c r="R51" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="S51" t="s">
         <v>31</v>
@@ -6042,7 +6048,7 @@
         <v>31</v>
       </c>
       <c r="X51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y51" t="s">
         <v>31</v>
@@ -6050,7 +6056,7 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -6059,25 +6065,25 @@
         <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E52" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F52" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H52" t="s">
         <v>31</v>
       </c>
       <c r="I52" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K52" t="s">
         <v>45</v>
@@ -6101,7 +6107,7 @@
         <v>31</v>
       </c>
       <c r="R52" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="S52" t="s">
         <v>31</v>
@@ -6119,7 +6125,7 @@
         <v>31</v>
       </c>
       <c r="X52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y52" t="s">
         <v>31</v>
@@ -6127,7 +6133,7 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -6136,10 +6142,10 @@
         <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E53" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -6151,7 +6157,7 @@
         <v>31</v>
       </c>
       <c r="I53" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J53" t="s">
         <v>94</v>
@@ -6178,7 +6184,7 @@
         <v>31</v>
       </c>
       <c r="R53" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="S53" t="s">
         <v>31</v>
@@ -6196,7 +6202,7 @@
         <v>31</v>
       </c>
       <c r="X53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y53" t="s">
         <v>31</v>
@@ -6204,7 +6210,7 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -6213,16 +6219,16 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E54" t="s">
         <v>128</v>
       </c>
       <c r="F54" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s">
         <v>31</v>
@@ -6255,7 +6261,7 @@
         <v>31</v>
       </c>
       <c r="R54" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="S54" t="s">
         <v>31</v>
@@ -6273,7 +6279,7 @@
         <v>31</v>
       </c>
       <c r="X54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y54" t="s">
         <v>31</v>
@@ -6281,7 +6287,7 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -6290,13 +6296,13 @@
         <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E55" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F55" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G55" t="s">
         <v>31</v>
@@ -6332,7 +6338,7 @@
         <v>31</v>
       </c>
       <c r="R55" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="S55" t="s">
         <v>31</v>
@@ -6350,7 +6356,7 @@
         <v>31</v>
       </c>
       <c r="X55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y55" t="s">
         <v>31</v>
@@ -6358,25 +6364,25 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E56" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F56" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H56" t="s">
         <v>31</v>
@@ -6385,10 +6391,10 @@
         <v>31</v>
       </c>
       <c r="J56" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K56" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L56" t="s">
         <v>31</v>
@@ -6409,7 +6415,7 @@
         <v>31</v>
       </c>
       <c r="R56" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="S56" t="s">
         <v>31</v>
@@ -6427,7 +6433,7 @@
         <v>31</v>
       </c>
       <c r="X56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y56" t="s">
         <v>31</v>
@@ -6435,7 +6441,7 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -6444,22 +6450,22 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E57" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F57" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G57" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H57" t="s">
         <v>31</v>
       </c>
       <c r="I57" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J57" t="s">
         <v>80</v>
@@ -6486,7 +6492,7 @@
         <v>31</v>
       </c>
       <c r="R57" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="S57" t="s">
         <v>31</v>
@@ -6504,7 +6510,7 @@
         <v>31</v>
       </c>
       <c r="X57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y57" t="s">
         <v>31</v>
@@ -6512,7 +6518,7 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -6521,13 +6527,13 @@
         <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E58" t="s">
         <v>134</v>
       </c>
       <c r="F58" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G58" t="s">
         <v>31</v>
@@ -6563,7 +6569,7 @@
         <v>31</v>
       </c>
       <c r="R58" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="S58" t="s">
         <v>31</v>
@@ -6581,7 +6587,7 @@
         <v>31</v>
       </c>
       <c r="X58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y58" t="s">
         <v>31</v>
@@ -6589,7 +6595,7 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -6598,22 +6604,22 @@
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E59" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F59" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G59" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H59" t="s">
         <v>31</v>
       </c>
       <c r="I59" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J59" t="s">
         <v>80</v>
@@ -6640,7 +6646,7 @@
         <v>31</v>
       </c>
       <c r="R59" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="S59" t="s">
         <v>31</v>
@@ -6658,7 +6664,7 @@
         <v>31</v>
       </c>
       <c r="X59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y59" t="s">
         <v>31</v>
@@ -6666,7 +6672,7 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -6675,22 +6681,22 @@
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E60" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F60" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G60" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H60" t="s">
         <v>31</v>
       </c>
       <c r="I60" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J60" t="s">
         <v>94</v>
@@ -6717,7 +6723,7 @@
         <v>31</v>
       </c>
       <c r="R60" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="S60" t="s">
         <v>31</v>
@@ -6735,7 +6741,7 @@
         <v>31</v>
       </c>
       <c r="X60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y60" t="s">
         <v>31</v>
@@ -6743,7 +6749,7 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -6752,13 +6758,13 @@
         <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E61" t="s">
         <v>134</v>
       </c>
       <c r="F61" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -6767,7 +6773,7 @@
         <v>31</v>
       </c>
       <c r="I61" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J61" t="s">
         <v>94</v>
@@ -6794,7 +6800,7 @@
         <v>31</v>
       </c>
       <c r="R61" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="S61" t="s">
         <v>31</v>
@@ -6812,7 +6818,7 @@
         <v>31</v>
       </c>
       <c r="X61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y61" t="s">
         <v>31</v>
@@ -6820,25 +6826,25 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E62" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F62" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s">
         <v>31</v>
@@ -6847,10 +6853,10 @@
         <v>31</v>
       </c>
       <c r="J62" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K62" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L62" t="s">
         <v>31</v>
@@ -6871,10 +6877,10 @@
         <v>31</v>
       </c>
       <c r="R62" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="S62" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="T62" t="s">
         <v>31</v>
@@ -6889,7 +6895,7 @@
         <v>31</v>
       </c>
       <c r="X62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y62" t="s">
         <v>31</v>
@@ -6897,7 +6903,7 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -6906,16 +6912,16 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E63" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H63" t="s">
         <v>31</v>
@@ -6924,7 +6930,7 @@
         <v>31</v>
       </c>
       <c r="J63" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K63" t="s">
         <v>45</v>
@@ -6948,7 +6954,7 @@
         <v>31</v>
       </c>
       <c r="R63" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="S63" t="s">
         <v>31</v>
@@ -6966,7 +6972,7 @@
         <v>31</v>
       </c>
       <c r="X63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y63" t="s">
         <v>31</v>
@@ -6974,22 +6980,22 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B64" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C64" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E64" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F64" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G64" t="s">
         <v>147</v>
@@ -6998,13 +7004,13 @@
         <v>31</v>
       </c>
       <c r="I64" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K64" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L64" t="s">
         <v>31</v>
@@ -7025,33 +7031,33 @@
         <v>31</v>
       </c>
       <c r="R64" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="S64" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="T64" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="U64" t="s">
         <v>36</v>
       </c>
       <c r="V64" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W64" t="s">
         <v>31</v>
       </c>
       <c r="X64" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Y64" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -7060,25 +7066,25 @@
         <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E65" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H65" t="s">
         <v>31</v>
       </c>
       <c r="I65" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J65" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K65" t="s">
         <v>45</v>
@@ -7096,13 +7102,13 @@
         <v>31</v>
       </c>
       <c r="P65" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q65" t="s">
         <v>31</v>
       </c>
       <c r="R65" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="S65" t="s">
         <v>31</v>
@@ -7120,7 +7126,7 @@
         <v>31</v>
       </c>
       <c r="X65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y65" t="s">
         <v>31</v>
@@ -7128,7 +7134,7 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -7137,13 +7143,13 @@
         <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E66" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F66" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G66" t="s">
         <v>31</v>
@@ -7179,7 +7185,7 @@
         <v>31</v>
       </c>
       <c r="R66" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="S66" t="s">
         <v>31</v>
@@ -7197,7 +7203,7 @@
         <v>31</v>
       </c>
       <c r="X66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y66" t="s">
         <v>31</v>
@@ -7205,7 +7211,7 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -7214,16 +7220,16 @@
         <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E67" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F67" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H67" t="s">
         <v>31</v>
@@ -7232,7 +7238,7 @@
         <v>31</v>
       </c>
       <c r="J67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K67" t="s">
         <v>45</v>
@@ -7256,7 +7262,7 @@
         <v>31</v>
       </c>
       <c r="R67" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="S67" t="s">
         <v>31</v>
@@ -7274,7 +7280,7 @@
         <v>31</v>
       </c>
       <c r="X67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y67" t="s">
         <v>31</v>
@@ -7282,34 +7288,34 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B68" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C68" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D68" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E68" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F68" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H68" t="s">
         <v>31</v>
       </c>
       <c r="I68" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J68" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K68" t="s">
         <v>45</v>
@@ -7333,10 +7339,10 @@
         <v>31</v>
       </c>
       <c r="R68" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="S68" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="T68" t="s">
         <v>31</v>
@@ -7345,21 +7351,21 @@
         <v>36</v>
       </c>
       <c r="V68" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W68" t="s">
         <v>31</v>
       </c>
       <c r="X68" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Y68" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -7368,13 +7374,13 @@
         <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E69" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F69" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G69" t="s">
         <v>31</v>
@@ -7383,7 +7389,7 @@
         <v>31</v>
       </c>
       <c r="I69" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J69" t="s">
         <v>94</v>
@@ -7410,7 +7416,7 @@
         <v>31</v>
       </c>
       <c r="R69" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="S69" t="s">
         <v>31</v>
@@ -7428,7 +7434,7 @@
         <v>31</v>
       </c>
       <c r="X69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y69" t="s">
         <v>31</v>
@@ -7436,7 +7442,7 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -7445,7 +7451,7 @@
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E70" t="s">
         <v>152</v>
@@ -7460,13 +7466,13 @@
         <v>31</v>
       </c>
       <c r="I70" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J70" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K70" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L70" t="s">
         <v>31</v>
@@ -7481,13 +7487,13 @@
         <v>31</v>
       </c>
       <c r="P70" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q70" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="R70" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="S70" t="s">
         <v>31</v>
@@ -7505,7 +7511,7 @@
         <v>31</v>
       </c>
       <c r="X70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y70" t="s">
         <v>31</v>
@@ -7513,7 +7519,7 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -7522,28 +7528,28 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E71" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F71" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H71" t="s">
         <v>31</v>
       </c>
       <c r="I71" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K71" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L71" t="s">
         <v>31</v>
@@ -7564,7 +7570,7 @@
         <v>31</v>
       </c>
       <c r="R71" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="S71" t="s">
         <v>31</v>
@@ -7576,13 +7582,13 @@
         <v>36</v>
       </c>
       <c r="V71" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W71" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="X71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y71" t="s">
         <v>31</v>
@@ -7590,25 +7596,25 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B72" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C72" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D72" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E72" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F72" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H72" t="s">
         <v>31</v>
@@ -7617,7 +7623,7 @@
         <v>31</v>
       </c>
       <c r="J72" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K72" t="s">
         <v>45</v>
@@ -7641,10 +7647,10 @@
         <v>31</v>
       </c>
       <c r="R72" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="S72" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="T72" t="s">
         <v>31</v>
@@ -7653,21 +7659,21 @@
         <v>36</v>
       </c>
       <c r="V72" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W72" t="s">
         <v>31</v>
       </c>
       <c r="X72" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Y72" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -7676,16 +7682,16 @@
         <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E73" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F73" t="s">
         <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H73" t="s">
         <v>31</v>
@@ -7718,7 +7724,7 @@
         <v>31</v>
       </c>
       <c r="R73" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S73" t="s">
         <v>31</v>
@@ -7736,7 +7742,7 @@
         <v>31</v>
       </c>
       <c r="X73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y73" t="s">
         <v>31</v>
@@ -7744,7 +7750,7 @@
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -7753,16 +7759,16 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E74" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F74" t="s">
         <v>153</v>
       </c>
       <c r="G74" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H74" t="s">
         <v>31</v>
@@ -7771,7 +7777,7 @@
         <v>31</v>
       </c>
       <c r="J74" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K74" t="s">
         <v>45</v>
@@ -7795,7 +7801,7 @@
         <v>31</v>
       </c>
       <c r="R74" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="S74" t="s">
         <v>31</v>
@@ -7807,13 +7813,13 @@
         <v>36</v>
       </c>
       <c r="V74" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W74" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="X74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y74" t="s">
         <v>31</v>
@@ -7821,7 +7827,7 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -7830,25 +7836,25 @@
         <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E75" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F75" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G75" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H75" t="s">
         <v>31</v>
       </c>
       <c r="I75" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J75" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K75" t="s">
         <v>45</v>
@@ -7872,7 +7878,7 @@
         <v>31</v>
       </c>
       <c r="R75" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="S75" t="s">
         <v>31</v>
@@ -7890,7 +7896,7 @@
         <v>31</v>
       </c>
       <c r="X75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y75" t="s">
         <v>31</v>
@@ -7898,7 +7904,7 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -7907,13 +7913,13 @@
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E76" t="s">
         <v>134</v>
       </c>
       <c r="F76" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G76" t="s">
         <v>31</v>
@@ -7949,7 +7955,7 @@
         <v>31</v>
       </c>
       <c r="R76" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="S76" t="s">
         <v>31</v>
@@ -7967,7 +7973,7 @@
         <v>31</v>
       </c>
       <c r="X76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y76" t="s">
         <v>31</v>
@@ -7975,7 +7981,7 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
@@ -7984,16 +7990,16 @@
         <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E77" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F77" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G77" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H77" t="s">
         <v>31</v>
@@ -8002,7 +8008,7 @@
         <v>31</v>
       </c>
       <c r="J77" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K77" t="s">
         <v>45</v>
@@ -8026,7 +8032,7 @@
         <v>31</v>
       </c>
       <c r="R77" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="S77" t="s">
         <v>31</v>
@@ -8044,7 +8050,7 @@
         <v>31</v>
       </c>
       <c r="X77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y77" t="s">
         <v>31</v>
@@ -8052,13 +8058,13 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B78" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C78" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D78" t="s">
         <v>113</v>
@@ -8067,22 +8073,22 @@
         <v>114</v>
       </c>
       <c r="F78" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H78" t="s">
         <v>31</v>
       </c>
       <c r="I78" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="J78" t="s">
         <v>117</v>
       </c>
       <c r="K78" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L78" t="s">
         <v>31</v>
@@ -8106,7 +8112,7 @@
         <v>46</v>
       </c>
       <c r="S78" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="T78" t="s">
         <v>31</v>
@@ -8115,39 +8121,39 @@
         <v>36</v>
       </c>
       <c r="V78" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W78" t="s">
         <v>31</v>
       </c>
       <c r="X78" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Y78" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B79" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C79" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D79" t="s">
         <v>76</v>
       </c>
       <c r="E79" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F79" t="s">
         <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H79" t="s">
         <v>31</v>
@@ -8177,13 +8183,13 @@
         <v>31</v>
       </c>
       <c r="Q79" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="R79" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="S79" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="T79" t="s">
         <v>31</v>
@@ -8192,21 +8198,21 @@
         <v>36</v>
       </c>
       <c r="V79" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W79" t="s">
         <v>31</v>
       </c>
       <c r="X79" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Y79" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -8215,22 +8221,22 @@
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E80" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F80" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G80" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H80" t="s">
         <v>31</v>
       </c>
       <c r="I80" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J80" t="s">
         <v>89</v>
@@ -8257,7 +8263,7 @@
         <v>31</v>
       </c>
       <c r="R80" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="S80" t="s">
         <v>31</v>
@@ -8275,7 +8281,7 @@
         <v>31</v>
       </c>
       <c r="X80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y80" t="s">
         <v>31</v>
@@ -8283,7 +8289,7 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -8292,10 +8298,10 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E81" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F81" t="s">
         <v>99</v>
@@ -8307,10 +8313,10 @@
         <v>31</v>
       </c>
       <c r="I81" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J81" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K81" t="s">
         <v>45</v>
@@ -8334,7 +8340,7 @@
         <v>31</v>
       </c>
       <c r="R81" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="S81" t="s">
         <v>31</v>
@@ -8352,7 +8358,7 @@
         <v>31</v>
       </c>
       <c r="X81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y81" t="s">
         <v>31</v>
@@ -8360,7 +8366,7 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -8369,16 +8375,16 @@
         <v>39</v>
       </c>
       <c r="D82" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E82" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F82" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H82" t="s">
         <v>31</v>
@@ -8411,7 +8417,7 @@
         <v>31</v>
       </c>
       <c r="R82" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S82" t="s">
         <v>31</v>
@@ -8429,7 +8435,7 @@
         <v>31</v>
       </c>
       <c r="X82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y82" t="s">
         <v>31</v>
@@ -8437,7 +8443,7 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -8446,22 +8452,22 @@
         <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E83" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F83" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H83" t="s">
         <v>31</v>
       </c>
       <c r="I83" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J83" t="s">
         <v>80</v>
@@ -8488,7 +8494,7 @@
         <v>31</v>
       </c>
       <c r="R83" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="S83" t="s">
         <v>31</v>
@@ -8506,7 +8512,7 @@
         <v>31</v>
       </c>
       <c r="X83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y83" t="s">
         <v>31</v>
@@ -8514,7 +8520,7 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -8523,22 +8529,22 @@
         <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E84" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F84" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G84" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H84" t="s">
         <v>31</v>
       </c>
       <c r="I84" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J84" t="s">
         <v>110</v>
@@ -8565,7 +8571,7 @@
         <v>31</v>
       </c>
       <c r="R84" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="S84" t="s">
         <v>31</v>
@@ -8583,7 +8589,7 @@
         <v>31</v>
       </c>
       <c r="X84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y84" t="s">
         <v>31</v>
@@ -8591,7 +8597,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -8600,22 +8606,22 @@
         <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E85" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H85" t="s">
         <v>31</v>
       </c>
       <c r="I85" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J85" t="s">
         <v>80</v>
@@ -8642,7 +8648,7 @@
         <v>31</v>
       </c>
       <c r="R85" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="S85" t="s">
         <v>31</v>
@@ -8660,7 +8666,7 @@
         <v>31</v>
       </c>
       <c r="X85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y85" t="s">
         <v>31</v>
@@ -8668,7 +8674,7 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
@@ -8677,10 +8683,10 @@
         <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E86" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F86" t="s">
         <v>30</v>
@@ -8692,10 +8698,10 @@
         <v>31</v>
       </c>
       <c r="I86" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J86" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K86" t="s">
         <v>45</v>
@@ -8719,7 +8725,7 @@
         <v>31</v>
       </c>
       <c r="R86" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="S86" t="s">
         <v>31</v>
@@ -8737,7 +8743,7 @@
         <v>31</v>
       </c>
       <c r="X86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y86" t="s">
         <v>31</v>
@@ -8745,7 +8751,7 @@
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -8754,10 +8760,10 @@
         <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E87" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F87" t="s">
         <v>30</v>
@@ -8796,7 +8802,7 @@
         <v>31</v>
       </c>
       <c r="R87" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="S87" t="s">
         <v>31</v>
@@ -8814,7 +8820,7 @@
         <v>31</v>
       </c>
       <c r="X87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y87" t="s">
         <v>31</v>
@@ -8822,7 +8828,7 @@
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -8831,28 +8837,28 @@
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E88" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F88" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H88" t="s">
         <v>31</v>
       </c>
       <c r="I88" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J88" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K88" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L88" t="s">
         <v>31</v>
@@ -8873,7 +8879,7 @@
         <v>31</v>
       </c>
       <c r="R88" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="S88" t="s">
         <v>31</v>
@@ -8882,10 +8888,10 @@
         <v>31</v>
       </c>
       <c r="U88" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V88" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="W88" t="s">
         <v>31</v>
@@ -8899,7 +8905,7 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -8908,16 +8914,16 @@
         <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E89" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F89" t="s">
         <v>153</v>
       </c>
       <c r="G89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H89" t="s">
         <v>31</v>
@@ -8926,13 +8932,13 @@
         <v>31</v>
       </c>
       <c r="J89" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K89" t="s">
         <v>45</v>
       </c>
       <c r="L89" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M89" t="s">
         <v>31</v>
@@ -8947,10 +8953,10 @@
         <v>31</v>
       </c>
       <c r="Q89" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="R89" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="S89" t="s">
         <v>31</v>
@@ -8968,7 +8974,7 @@
         <v>31</v>
       </c>
       <c r="X89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y89" t="s">
         <v>31</v>
@@ -8976,25 +8982,25 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D90" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E90" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F90" t="s">
         <v>146</v>
       </c>
       <c r="G90" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H90" t="s">
         <v>31</v>
@@ -9027,7 +9033,7 @@
         <v>31</v>
       </c>
       <c r="R90" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="S90" t="s">
         <v>31</v>
@@ -9045,7 +9051,7 @@
         <v>31</v>
       </c>
       <c r="X90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y90" t="s">
         <v>31</v>
@@ -9053,7 +9059,7 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -9062,13 +9068,13 @@
         <v>39</v>
       </c>
       <c r="D91" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E91" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F91" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G91" t="s">
         <v>31</v>
@@ -9104,7 +9110,7 @@
         <v>31</v>
       </c>
       <c r="R91" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="S91" t="s">
         <v>31</v>
@@ -9122,7 +9128,7 @@
         <v>31</v>
       </c>
       <c r="X91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y91" t="s">
         <v>31</v>
@@ -9130,25 +9136,25 @@
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B92" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E92" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F92" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H92" t="s">
         <v>31</v>
@@ -9181,10 +9187,10 @@
         <v>31</v>
       </c>
       <c r="R92" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="S92" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="T92" t="s">
         <v>31</v>
@@ -9193,21 +9199,21 @@
         <v>36</v>
       </c>
       <c r="V92" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W92" t="s">
         <v>31</v>
       </c>
       <c r="X92" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Y92" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -9216,25 +9222,25 @@
         <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E93" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F93" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H93" t="s">
         <v>31</v>
       </c>
       <c r="I93" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="J93" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K93" t="s">
         <v>45</v>
@@ -9255,10 +9261,10 @@
         <v>31</v>
       </c>
       <c r="Q93" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R93" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="S93" t="s">
         <v>31</v>
@@ -9276,7 +9282,7 @@
         <v>31</v>
       </c>
       <c r="X93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y93" t="s">
         <v>31</v>
@@ -9284,7 +9290,7 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B94" t="s">
         <v>26</v>
@@ -9293,13 +9299,13 @@
         <v>39</v>
       </c>
       <c r="D94" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E94" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F94" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G94" t="s">
         <v>31</v>
@@ -9311,7 +9317,7 @@
         <v>31</v>
       </c>
       <c r="J94" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K94" t="s">
         <v>45</v>
@@ -9335,7 +9341,7 @@
         <v>31</v>
       </c>
       <c r="R94" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="S94" t="s">
         <v>31</v>
@@ -9353,7 +9359,7 @@
         <v>31</v>
       </c>
       <c r="X94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y94" t="s">
         <v>31</v>
